--- a/docs/Dicionario_base_desidentificada_pt.xlsx
+++ b/docs/Dicionario_base_desidentificada_pt.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="11_C41FD95498DD4CE7FDC407F64CDA5233580E0C8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{494BA09A-0004-4633-B0E9-912B3415EBA6}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Famílias" sheetId="1" r:id="rId1"/>
@@ -977,17 +977,11 @@
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1007,53 +1001,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1068,27 +1020,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1099,8 +1036,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1108,17 +1060,65 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1136,6 +1136,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1437,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView showGridLines="0" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,1411 +1459,1535 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="15">
         <v>7</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="47"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="4">
         <v>8</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="38">
         <v>8</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="48">
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="40">
         <v>4</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="D10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="27">
         <v>9</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="35" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="2:8" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="2:8" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="39">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="42">
         <v>8</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+      <c r="B14" s="6">
         <v>6</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="6">
         <v>8</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48">
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="40">
         <v>7</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="36">
+      <c r="D15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="27">
         <v>1</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="42" t="s">
+      <c r="F15" s="27"/>
+      <c r="G15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="44" t="s">
+    <row r="16" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="39">
         <v>8</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="38"/>
+      <c r="G17" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="20" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="20" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19">
+      <c r="B20" s="6">
         <v>9</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="21">
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19">
+      <c r="B21" s="6">
         <v>10</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="21">
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+      <c r="B22" s="39">
         <v>11</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="38">
         <v>1</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="38"/>
+      <c r="G22" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="20" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="20" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="20" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="20" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="20" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="20" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+      <c r="B29" s="39">
         <v>12</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D29" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="38">
         <v>1</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="38"/>
+      <c r="G29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="20" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="20" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="20" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="20" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="20" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="20" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="20" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+      <c r="B37" s="39">
         <v>13</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="D37" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="38">
         <v>1</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7" t="s">
+      <c r="F37" s="38"/>
+      <c r="G37" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="20" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+      <c r="B39" s="39">
         <v>14</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="6">
+      <c r="D39" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="38">
         <v>1</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="38"/>
+      <c r="G39" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="20" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="20" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="20" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
+      <c r="B43" s="39">
         <v>15</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="D43" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="38">
         <v>1</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7" t="s">
+      <c r="F43" s="38"/>
+      <c r="G43" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="20" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="48">
+    <row r="45" spans="2:8" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="40">
         <v>16</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="36">
+      <c r="D45" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="27">
         <v>1</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="42" t="s">
+      <c r="F45" s="27"/>
+      <c r="G45" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="48"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="44" t="s">
+    <row r="46" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="40"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="44" t="s">
+    <row r="47" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="40"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="48"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="44" t="s">
+    <row r="48" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="40"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="44" t="s">
+    <row r="49" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="40"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="48"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="44" t="s">
+    <row r="50" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="40"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
+      <c r="B51" s="39">
         <v>17</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="6">
+      <c r="D51" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="38">
         <v>1</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7" t="s">
+      <c r="F51" s="38"/>
+      <c r="G51" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="20" t="s">
+      <c r="B52" s="39"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="20" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="20" t="s">
+      <c r="B54" s="39"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="20" t="s">
+      <c r="B55" s="39"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="20" t="s">
+      <c r="B56" s="39"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
-        <v>18</v>
-      </c>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="39">
+        <v>18</v>
+      </c>
+      <c r="C57" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="6">
+      <c r="D57" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="38">
         <v>1</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7" t="s">
+      <c r="F57" s="38"/>
+      <c r="G57" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="20" t="s">
+      <c r="B58" s="39"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="20" t="s">
+      <c r="B59" s="39"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="20" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="20" t="s">
+      <c r="B61" s="39"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="20" t="s">
+      <c r="B62" s="39"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
+      <c r="B63" s="39">
         <v>19</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="D63" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="38">
         <v>1</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="7" t="s">
+      <c r="F63" s="38"/>
+      <c r="G63" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="H63" s="20" t="s">
+      <c r="H63" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="20" t="s">
+      <c r="B64" s="39"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="20" t="s">
+      <c r="B65" s="39"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="2">
+      <c r="B66" s="31">
         <v>20</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="D66" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="31">
         <v>1</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="9" t="s">
+      <c r="F66" s="38"/>
+      <c r="G66" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H66" s="22" t="s">
+      <c r="H66" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="22" t="s">
+      <c r="B67" s="31"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="2">
+      <c r="B68" s="31">
         <v>21</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="6">
+      <c r="D68" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="38">
         <v>1</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="9" t="s">
+      <c r="F68" s="38"/>
+      <c r="G68" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="H68" s="22" t="s">
+      <c r="H68" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="22" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="18">
+      <c r="B70" s="1">
         <v>22</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E70" s="4">
         <v>70</v>
       </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="9" t="s">
+      <c r="F70" s="7"/>
+      <c r="G70" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H70" s="9"/>
+      <c r="H70" s="30"/>
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="18">
+      <c r="B71" s="1">
         <v>23</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E71" s="4">
         <v>12</v>
       </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="9" t="s">
+      <c r="F71" s="7"/>
+      <c r="G71" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="30"/>
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="18">
+      <c r="B72" s="1">
         <v>24</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="4">
         <v>70</v>
       </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="9" t="s">
+      <c r="F72" s="7"/>
+      <c r="G72" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="30"/>
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="18">
+      <c r="B73" s="1">
         <v>25</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="4">
         <v>12</v>
       </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="9" t="s">
+      <c r="F73" s="7"/>
+      <c r="G73" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H73" s="9"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="2">
+      <c r="B74" s="31">
         <v>26</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="16">
+      <c r="D74" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="33">
         <v>3</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="15" t="s">
+      <c r="F74" s="33"/>
+      <c r="G74" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="H74" s="26" t="s">
+      <c r="H74" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="26" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="26" t="s">
+      <c r="B76" s="31"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="10" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="10"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="26" t="s">
+      <c r="B79" s="31"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B80" s="2"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="24" t="s">
+      <c r="B80" s="31"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="3" t="s">
+      <c r="B81" s="31"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="2"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="3"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="36"/>
     </row>
     <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="3" t="s">
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="3"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="36"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="2"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="24" t="s">
+      <c r="B85" s="31"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="3" t="s">
+      <c r="B86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="3"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="36"/>
     </row>
     <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="3" t="s">
+      <c r="B88" s="31"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="36" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="3"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="36"/>
     </row>
     <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="3" t="s">
+      <c r="B90" s="31"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="3"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="36"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="2"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="24" t="s">
+      <c r="B92" s="31"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="29">
+    <row r="93" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="13">
         <v>27</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="41">
+      <c r="D93" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="20">
         <v>1</v>
       </c>
-      <c r="F93" s="49">
+      <c r="F93" s="23">
         <v>14</v>
       </c>
-      <c r="G93" s="39" t="s">
+      <c r="G93" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="H93" s="39"/>
-    </row>
-    <row r="94" spans="2:8" s="33" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="29">
+      <c r="H93" s="24"/>
+    </row>
+    <row r="94" spans="2:8" s="16" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="13">
         <v>28</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C94" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D94" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="38">
+      <c r="D94" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="18">
         <v>8</v>
       </c>
-      <c r="F94" s="44"/>
-      <c r="G94" s="42" t="s">
+      <c r="F94" s="21"/>
+      <c r="G94" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="H94" s="42"/>
-    </row>
-    <row r="95" spans="2:8" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="34">
+      <c r="H94" s="28"/>
+    </row>
+    <row r="95" spans="2:8" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="25">
         <v>29</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D95" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="36">
+      <c r="D95" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="27">
         <v>1</v>
       </c>
-      <c r="F95" s="36"/>
-      <c r="G95" s="42" t="s">
+      <c r="F95" s="27"/>
+      <c r="G95" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="H95" s="44" t="s">
+      <c r="H95" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="2:8" s="33" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="34"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="44" t="s">
+    <row r="96" spans="2:8" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="25"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="34">
+    <row r="97" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="25">
         <v>30</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="36">
+      <c r="D97" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="27">
         <v>1</v>
       </c>
-      <c r="F97" s="36"/>
-      <c r="G97" s="45" t="s">
+      <c r="F97" s="27"/>
+      <c r="G97" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H97" s="44" t="s">
+      <c r="H97" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="2:8" s="33" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="34"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="44" t="s">
+    <row r="98" spans="2:8" s="16" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="25"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="34"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="44" t="s">
+    <row r="99" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="25"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="2:8" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="29">
+    <row r="100" spans="2:8" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="13">
         <v>31</v>
       </c>
-      <c r="C100" s="40" t="s">
+      <c r="C100" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D100" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="41">
+      <c r="D100" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="20">
         <v>1</v>
       </c>
-      <c r="F100" s="49"/>
-      <c r="G100" s="39" t="s">
+      <c r="F100" s="23"/>
+      <c r="G100" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="H100" s="39"/>
-    </row>
-    <row r="101" spans="2:8" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="34">
+      <c r="H100" s="24"/>
+    </row>
+    <row r="101" spans="2:8" s="16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="25">
         <v>32</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D101" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="36">
+      <c r="D101" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="27">
         <v>1</v>
       </c>
-      <c r="F101" s="36"/>
-      <c r="G101" s="42" t="s">
+      <c r="F101" s="27"/>
+      <c r="G101" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="H101" s="44" t="s">
+      <c r="H101" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="34"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="44" t="s">
+    <row r="102" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="25"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="21" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="B4:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="B74:B92"/>
+    <mergeCell ref="C74:C92"/>
+    <mergeCell ref="D74:D92"/>
+    <mergeCell ref="E74:E92"/>
+    <mergeCell ref="F74:F92"/>
+    <mergeCell ref="G74:G92"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
     <mergeCell ref="G100:H100"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:C102"/>
@@ -2881,130 +3009,6 @@
     <mergeCell ref="E97:E99"/>
     <mergeCell ref="F97:F99"/>
     <mergeCell ref="G97:G99"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="B74:B92"/>
-    <mergeCell ref="C74:C92"/>
-    <mergeCell ref="D74:D92"/>
-    <mergeCell ref="E74:E92"/>
-    <mergeCell ref="F74:F92"/>
-    <mergeCell ref="G74:G92"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="B4:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3015,1891 +3019,1759 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H128"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="7.140625" style="27"/>
+    <col min="2" max="2" width="7.140625" style="11"/>
     <col min="3" max="3" width="26.140625"/>
     <col min="4" max="4" width="12.140625"/>
     <col min="5" max="5" width="6"/>
     <col min="6" max="6" width="7.5703125"/>
-    <col min="7" max="7" width="20.42578125" style="28"/>
+    <col min="7" max="7" width="20.42578125" style="12"/>
     <col min="8" max="8" width="25.28515625"/>
     <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="15">
         <v>7</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="D7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="27">
         <v>1</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37" t="s">
+    <row r="8" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+    <row r="9" spans="2:8" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="D9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="18">
         <v>3</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="2:8" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="2:8" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
         <v>4</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="D10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="25">
         <v>2</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37" t="s">
+    <row r="11" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37" t="s">
+    <row r="12" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37" t="s">
+    <row r="13" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37" t="s">
+    <row r="14" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37" t="s">
+    <row r="15" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37" t="s">
+    <row r="16" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37" t="s">
+    <row r="17" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37" t="s">
+    <row r="18" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37" t="s">
+    <row r="19" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37" t="s">
+    <row r="20" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
+    <row r="21" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25">
         <v>5</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="36">
+      <c r="D21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="27">
         <v>1</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37" t="s">
+    <row r="22" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37" t="s">
+    <row r="23" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37" t="s">
+    <row r="24" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="25"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37" t="s">
+    <row r="25" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
+      <c r="B26" s="31">
         <v>6</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="38">
         <v>1</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="38"/>
+      <c r="G26" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="22" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="22" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
+      <c r="B29" s="31">
         <v>7</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D29" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="38">
         <v>1</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="38"/>
+      <c r="G29" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="22" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="22" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="22" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
+      <c r="B33" s="31">
         <v>8</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="38">
         <v>1</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="38"/>
+      <c r="G33" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="20" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="34">
+    <row r="35" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="25">
         <v>9</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="36">
+      <c r="D35" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="27">
         <v>1</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36" t="s">
+      <c r="F35" s="27"/>
+      <c r="G35" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37" t="s">
+    <row r="36" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="34">
+    <row r="37" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="25">
         <v>10</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="36">
+      <c r="D37" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="27">
         <v>1</v>
       </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36" t="s">
+      <c r="F37" s="27"/>
+      <c r="G37" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37" t="s">
+    <row r="38" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="25"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37" t="s">
+    <row r="39" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="25"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37" t="s">
+    <row r="40" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="25"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
+      <c r="B41" s="31">
         <v>11</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="6">
+      <c r="D41" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="38">
         <v>1</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6" t="s">
+      <c r="F41" s="38"/>
+      <c r="G41" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="22" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="34">
+    <row r="43" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="25">
         <v>12</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="36">
+      <c r="D43" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="27">
         <v>2</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36" t="s">
+      <c r="F43" s="27"/>
+      <c r="G43" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37" t="s">
+    <row r="44" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="25"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37" t="s">
+    <row r="45" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="25"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37" t="s">
+    <row r="46" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="25"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37" t="s">
+    <row r="47" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="25"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37" t="s">
+    <row r="48" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="25"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37" t="s">
+    <row r="49" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="25"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37" t="s">
+    <row r="50" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="25"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="34"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37" t="s">
+    <row r="51" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="25"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37" t="s">
+    <row r="52" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="25"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="34"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37" t="s">
+    <row r="53" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="25"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37" t="s">
+    <row r="54" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="25"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="33" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="34"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37" t="s">
+    <row r="55" spans="2:8" s="16" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="25"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37" t="s">
+    <row r="56" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="25"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
+      <c r="B57" s="31">
         <v>13</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="6">
+      <c r="D57" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="38">
         <v>2</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6" t="s">
+      <c r="F57" s="38"/>
+      <c r="G57" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="22" t="s">
+      <c r="B58" s="31"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="22" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="22" t="s">
+      <c r="B60" s="31"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="22" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="22" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="22" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="22" t="s">
+      <c r="B64" s="31"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="22" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="22" t="s">
+      <c r="B66" s="31"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="34">
+    <row r="67" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="25">
         <v>14</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D67" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="36">
+      <c r="D67" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="27">
         <v>2</v>
       </c>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36" t="s">
+      <c r="F67" s="27"/>
+      <c r="G67" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="34"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="37" t="s">
+    <row r="68" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="25"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="34"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37" t="s">
+    <row r="69" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="25"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="33" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="34"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="37" t="s">
+    <row r="70" spans="2:8" s="16" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="25"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="2:8" s="33" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="34"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37" t="s">
+    <row r="71" spans="2:8" s="16" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="25"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B72" s="34"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="37" t="s">
+    <row r="72" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B72" s="25"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="34"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="37" t="s">
+    <row r="73" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="25"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="2:8" s="33" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="34"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="37" t="s">
+    <row r="74" spans="2:8" s="16" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="25"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="34"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="37" t="s">
+    <row r="75" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="25"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B76" s="34"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="37" t="s">
+    <row r="76" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="25"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B77" s="34"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="37" t="s">
+    <row r="77" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B77" s="25"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="34"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="37" t="s">
+    <row r="78" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="25"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="2:8" s="33" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="34"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="37" t="s">
+    <row r="79" spans="2:8" s="16" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="25"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B80" s="34"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="37" t="s">
+    <row r="80" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B80" s="25"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="34"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="37" t="s">
+    <row r="81" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="25"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="17" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="2">
+      <c r="B82" s="31">
         <v>15</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="6">
+      <c r="D82" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="38">
         <v>2</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6" t="s">
+      <c r="F82" s="38"/>
+      <c r="G82" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="H82" s="22" t="s">
+      <c r="H82" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="22" t="s">
+      <c r="B83" s="31"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="22" t="s">
+      <c r="B84" s="31"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="2"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="22" t="s">
+      <c r="B85" s="31"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="22" t="s">
+      <c r="B86" s="31"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="22" t="s">
+      <c r="B87" s="31"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="22" t="s">
+      <c r="B88" s="31"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="22" t="s">
+      <c r="B89" s="31"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="22" t="s">
+      <c r="B90" s="31"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="22" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="2">
+      <c r="B92" s="31">
         <v>16</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="6">
+      <c r="D92" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="38">
         <v>1</v>
       </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6" t="s">
+      <c r="F92" s="38"/>
+      <c r="G92" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="H92" s="22" t="s">
+      <c r="H92" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="2"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="24" t="s">
+      <c r="B93" s="31"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="34">
+    <row r="94" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="25">
         <v>17</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="D94" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="36">
+      <c r="D94" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="27">
         <v>1</v>
       </c>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36" t="s">
+      <c r="F94" s="27"/>
+      <c r="G94" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="H94" s="37" t="s">
+      <c r="H94" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="37" t="s">
+    <row r="95" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="25"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="34">
-        <v>18</v>
-      </c>
-      <c r="C96" s="35" t="s">
+    <row r="96" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="25">
+        <v>18</v>
+      </c>
+      <c r="C96" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="D96" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="36">
+      <c r="D96" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="27">
         <v>1</v>
       </c>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36" t="s">
+      <c r="F96" s="27"/>
+      <c r="G96" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="H96" s="37" t="s">
+      <c r="H96" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="34"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="37" t="s">
+    <row r="97" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="25"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="2">
+      <c r="B98" s="31">
         <v>19</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="6">
+      <c r="D98" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="38">
         <v>1</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6" t="s">
+      <c r="F98" s="38"/>
+      <c r="G98" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="H98" s="22" t="s">
+      <c r="H98" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="2"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="22" t="s">
+      <c r="B99" s="31"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="2:8" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="34">
+    <row r="100" spans="2:8" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="25">
         <v>20</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="D100" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="36">
+      <c r="D100" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="27">
         <v>2</v>
       </c>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36" t="s">
+      <c r="F100" s="27"/>
+      <c r="G100" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="H100" s="37" t="s">
+      <c r="H100" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B101" s="34"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="37" t="s">
+    <row r="101" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B101" s="25"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B102" s="34"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="37" t="s">
+    <row r="102" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B102" s="25"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B103" s="34"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37" t="s">
+    <row r="103" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="25"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B104" s="34"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="37" t="s">
+    <row r="104" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B104" s="25"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="2:8" s="33" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B105" s="34"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="37" t="s">
+    <row r="105" spans="2:8" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B105" s="25"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="17" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="34"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="37" t="s">
+    <row r="106" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="25"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="17" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="34"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="37" t="s">
+    <row r="107" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="25"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="34"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="37" t="s">
+    <row r="108" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="25"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="17" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="109" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="34"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="37" t="s">
+    <row r="109" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="25"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="17" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="34"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="37" t="s">
+    <row r="110" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="25"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="2:8" s="33" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="29">
+    <row r="111" spans="2:8" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="13">
         <v>21</v>
       </c>
-      <c r="C111" s="37" t="s">
+      <c r="C111" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D111" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="38">
+      <c r="D111" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="18">
         <v>5</v>
       </c>
-      <c r="F111" s="38"/>
-      <c r="G111" s="39" t="s">
+      <c r="F111" s="18"/>
+      <c r="G111" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="H111" s="39"/>
+      <c r="H111" s="24"/>
     </row>
     <row r="112" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="2">
+      <c r="B112" s="31">
         <v>22</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="6">
+      <c r="D112" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="38">
         <v>1</v>
       </c>
-      <c r="F112" s="6"/>
-      <c r="G112" s="5" t="s">
+      <c r="F112" s="38"/>
+      <c r="G112" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="H112" s="24" t="s">
+      <c r="H112" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="113" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="2"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="24" t="s">
+      <c r="B113" s="31"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="18">
+      <c r="B114" s="1">
         <v>23</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D114" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="21">
+      <c r="D114" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="4">
         <v>2</v>
       </c>
-      <c r="F114" s="21"/>
-      <c r="G114" s="3" t="s">
+      <c r="F114" s="4"/>
+      <c r="G114" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="H114" s="3"/>
-    </row>
-    <row r="115" spans="2:8" s="33" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="29">
+      <c r="H114" s="36"/>
+    </row>
+    <row r="115" spans="2:8" s="16" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="13">
         <v>24</v>
       </c>
-      <c r="C115" s="37" t="s">
+      <c r="C115" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D115" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E115" s="38">
+      <c r="D115" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="18">
         <v>5</v>
       </c>
-      <c r="F115" s="38"/>
-      <c r="G115" s="39" t="s">
+      <c r="F115" s="18"/>
+      <c r="G115" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="H115" s="39"/>
-    </row>
-    <row r="116" spans="2:8" s="33" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="29">
+      <c r="H115" s="24"/>
+    </row>
+    <row r="116" spans="2:8" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="13">
         <v>25</v>
       </c>
-      <c r="C116" s="37" t="s">
+      <c r="C116" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D116" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="38">
+      <c r="D116" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="18">
         <v>5</v>
       </c>
-      <c r="F116" s="38"/>
-      <c r="G116" s="39" t="s">
+      <c r="F116" s="18"/>
+      <c r="G116" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="H116" s="39"/>
-    </row>
-    <row r="117" spans="2:8" s="33" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="29">
+      <c r="H116" s="24"/>
+    </row>
+    <row r="117" spans="2:8" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="13">
         <v>26</v>
       </c>
-      <c r="C117" s="37" t="s">
+      <c r="C117" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D117" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="38">
+      <c r="D117" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="18">
         <v>5</v>
       </c>
-      <c r="F117" s="38"/>
-      <c r="G117" s="39" t="s">
+      <c r="F117" s="18"/>
+      <c r="G117" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="H117" s="39"/>
-    </row>
-    <row r="118" spans="2:8" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="29">
+      <c r="H117" s="24"/>
+    </row>
+    <row r="118" spans="2:8" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="13">
         <v>27</v>
       </c>
-      <c r="C118" s="37" t="s">
+      <c r="C118" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D118" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="38">
+      <c r="D118" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="18">
         <v>5</v>
       </c>
-      <c r="F118" s="38"/>
-      <c r="G118" s="39" t="s">
+      <c r="F118" s="18"/>
+      <c r="G118" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="H118" s="39"/>
-    </row>
-    <row r="119" spans="2:8" s="33" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="29">
+      <c r="H118" s="24"/>
+    </row>
+    <row r="119" spans="2:8" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="13">
         <v>28</v>
       </c>
-      <c r="C119" s="37" t="s">
+      <c r="C119" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D119" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" s="38">
+      <c r="D119" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="18">
         <v>5</v>
       </c>
-      <c r="F119" s="38"/>
-      <c r="G119" s="39" t="s">
+      <c r="F119" s="18"/>
+      <c r="G119" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="H119" s="39"/>
-    </row>
-    <row r="120" spans="2:8" s="33" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="29">
+      <c r="H119" s="24"/>
+    </row>
+    <row r="120" spans="2:8" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="13">
         <v>29</v>
       </c>
-      <c r="C120" s="37" t="s">
+      <c r="C120" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="D120" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" s="38">
+      <c r="D120" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="18">
         <v>5</v>
       </c>
-      <c r="F120" s="38"/>
-      <c r="G120" s="39" t="s">
+      <c r="F120" s="18"/>
+      <c r="G120" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="H120" s="39"/>
-    </row>
-    <row r="121" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="29">
+      <c r="H120" s="24"/>
+    </row>
+    <row r="121" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="13">
         <v>30</v>
       </c>
-      <c r="C121" s="40" t="s">
+      <c r="C121" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D121" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="41">
+      <c r="D121" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="20">
         <v>1</v>
       </c>
-      <c r="F121" s="41">
+      <c r="F121" s="20">
         <v>14</v>
       </c>
-      <c r="G121" s="39" t="s">
+      <c r="G121" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="H121" s="39"/>
-    </row>
-    <row r="122" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="29">
+      <c r="H121" s="24"/>
+    </row>
+    <row r="122" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="13">
         <v>31</v>
       </c>
-      <c r="C122" s="40" t="s">
+      <c r="C122" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="D122" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="41">
+      <c r="D122" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="20">
         <v>1</v>
       </c>
-      <c r="F122" s="41">
+      <c r="F122" s="20">
         <v>14</v>
       </c>
-      <c r="G122" s="39" t="s">
+      <c r="G122" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="H122" s="39"/>
-    </row>
-    <row r="123" spans="2:8" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="29">
+      <c r="H122" s="24"/>
+    </row>
+    <row r="123" spans="2:8" s="16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="13">
         <v>32</v>
       </c>
-      <c r="C123" s="40" t="s">
+      <c r="C123" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D123" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="38">
+      <c r="D123" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="18">
         <v>8</v>
       </c>
-      <c r="F123" s="38"/>
-      <c r="G123" s="42" t="s">
+      <c r="F123" s="18"/>
+      <c r="G123" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="H123" s="42"/>
-    </row>
-    <row r="124" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="34">
+      <c r="H123" s="28"/>
+    </row>
+    <row r="124" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="25">
         <v>33</v>
       </c>
-      <c r="C124" s="43" t="s">
+      <c r="C124" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D124" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="36">
+      <c r="D124" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="27">
         <v>1</v>
       </c>
-      <c r="F124" s="36"/>
-      <c r="G124" s="42" t="s">
+      <c r="F124" s="27"/>
+      <c r="G124" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="H124" s="44" t="s">
+      <c r="H124" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="2:8" s="33" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="34"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="42"/>
-      <c r="H125" s="44" t="s">
+    <row r="125" spans="2:8" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="25"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="126" spans="2:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="34">
+    <row r="126" spans="2:8" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="25">
         <v>34</v>
       </c>
-      <c r="C126" s="43" t="s">
+      <c r="C126" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D126" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" s="36">
+      <c r="D126" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="27">
         <v>1</v>
       </c>
-      <c r="F126" s="36"/>
-      <c r="G126" s="45" t="s">
+      <c r="F126" s="27"/>
+      <c r="G126" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H126" s="44" t="s">
+      <c r="H126" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="2:8" s="33" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="34"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="44" t="s">
+    <row r="127" spans="2:8" s="16" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="25"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="34"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="44" t="s">
+    <row r="128" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="25"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="21" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="B100:B110"/>
-    <mergeCell ref="C100:C110"/>
-    <mergeCell ref="D100:D110"/>
-    <mergeCell ref="E100:E110"/>
-    <mergeCell ref="F100:F110"/>
-    <mergeCell ref="G100:G110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="B67:B81"/>
-    <mergeCell ref="C67:C81"/>
-    <mergeCell ref="D67:D81"/>
-    <mergeCell ref="E67:E81"/>
-    <mergeCell ref="F67:F81"/>
-    <mergeCell ref="G67:G81"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="C82:C91"/>
-    <mergeCell ref="D82:D91"/>
-    <mergeCell ref="E82:E91"/>
-    <mergeCell ref="F82:F91"/>
-    <mergeCell ref="G82:G91"/>
-    <mergeCell ref="B43:B56"/>
-    <mergeCell ref="C43:C56"/>
-    <mergeCell ref="D43:D56"/>
-    <mergeCell ref="E43:E56"/>
-    <mergeCell ref="F43:F56"/>
-    <mergeCell ref="G43:G56"/>
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="D57:D66"/>
-    <mergeCell ref="E57:E66"/>
-    <mergeCell ref="F57:F66"/>
-    <mergeCell ref="G57:G66"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D10:D20"/>
-    <mergeCell ref="E10:E20"/>
-    <mergeCell ref="F10:F20"/>
-    <mergeCell ref="G10:G20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -4914,6 +4786,138 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D10:D20"/>
+    <mergeCell ref="E10:E20"/>
+    <mergeCell ref="F10:F20"/>
+    <mergeCell ref="G10:G20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B43:B56"/>
+    <mergeCell ref="C43:C56"/>
+    <mergeCell ref="D43:D56"/>
+    <mergeCell ref="E43:E56"/>
+    <mergeCell ref="F43:F56"/>
+    <mergeCell ref="G43:G56"/>
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="D57:D66"/>
+    <mergeCell ref="E57:E66"/>
+    <mergeCell ref="F57:F66"/>
+    <mergeCell ref="G57:G66"/>
+    <mergeCell ref="B67:B81"/>
+    <mergeCell ref="C67:C81"/>
+    <mergeCell ref="D67:D81"/>
+    <mergeCell ref="E67:E81"/>
+    <mergeCell ref="F67:F81"/>
+    <mergeCell ref="G67:G81"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="C82:C91"/>
+    <mergeCell ref="D82:D91"/>
+    <mergeCell ref="E82:E91"/>
+    <mergeCell ref="F82:F91"/>
+    <mergeCell ref="G82:G91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="B100:B110"/>
+    <mergeCell ref="C100:C110"/>
+    <mergeCell ref="D100:D110"/>
+    <mergeCell ref="E100:E110"/>
+    <mergeCell ref="F100:F110"/>
+    <mergeCell ref="G100:G110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="G126:G128"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
